--- a/storage/importer/huts/EUMA_HUTS_HPS.xlsx
+++ b/storage/importer/huts/EUMA_HUTS_HPS.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mh1YhrjXmD1vRwIgkGYwIt2qWPdQg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjRp02oVBALOlD9U2zCjWg2rYfJEg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1076">
   <si>
     <t>id</t>
   </si>
@@ -1839,21 +1839,6 @@
     <t>PD Paklenica, Zadar 0038523301636, Milan Terman 00385989511075</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Ljubljan</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-ljubljan/</t>
-  </si>
-  <si>
-    <t>HPD Ljubljan Dugopolje</t>
-  </si>
-  <si>
-    <t>Mirko Plazibat 0038598809340, Mladen Balić 00385995969439, Denis Balić 00385981623994</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -2106,21 +2091,6 @@
     <t xml:space="preserve">Miro Zdunić  0038598768 240 </t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Planinarska kuća Kata</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarska-kuca-kata/</t>
-  </si>
-  <si>
-    <t>PD Bačić kuk, Pula</t>
-  </si>
-  <si>
-    <t>Ivan Došen 00385915628899, Zoran Došen 00385958538965, Kata Došen 00385911970332</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -2502,138 +2472,120 @@
     <t>Valerija Čulina 00385915758357</t>
   </si>
   <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Bili cvitak</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-bili-cvitak/</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Planinarsko sklonište Zlatko Prgin</t>
+  </si>
+  <si>
+    <t>44.0688</t>
+  </si>
+  <si>
+    <t>1.63736</t>
+  </si>
+  <si>
+    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-zlatko-prgin/</t>
+  </si>
+  <si>
+    <t>HPK Sv. MIhovil</t>
+  </si>
+  <si>
+    <t>Mate Protega 00385981677859, Momir Karabuva 00385917932174</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Planinarsko sklonište Dinaridi</t>
+  </si>
+  <si>
+    <t>44.03062365</t>
+  </si>
+  <si>
+    <t>16.3942194</t>
+  </si>
+  <si>
+    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-dinaridi/</t>
+  </si>
+  <si>
+    <t>PU Dinaridi Split</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darko Gavrić 00385917289963 </t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Planinarsko sklonište Drago Grubač</t>
+  </si>
+  <si>
+    <t>44.04361209</t>
+  </si>
+  <si>
+    <t>16.38702035</t>
+  </si>
+  <si>
+    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-drago-grubac/</t>
+  </si>
+  <si>
+    <t>Darko Gavrić 00385917289963</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>Planinarsko sklonište Martinova košara</t>
+  </si>
+  <si>
+    <t>44.0393472</t>
+  </si>
+  <si>
+    <t>16.40590847</t>
+  </si>
+  <si>
+    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-martinova-kosara/</t>
+  </si>
+  <si>
+    <t>HPD Sinjal 1831, Kijevo</t>
+  </si>
+  <si>
+    <t>Zvonimir Šimunović  0038598214442, Lidija Slavić 0038522681209</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Planinarska kuća Glavaš</t>
+  </si>
+  <si>
+    <t>44.01132471</t>
+  </si>
+  <si>
+    <t>16.41945899</t>
+  </si>
+  <si>
+    <t>https://www.hps.hr/info/planinarske-kuce/planinarska-kuca-glavas/</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Planinarsko sklonište Rupe</t>
+  </si>
+  <si>
+    <t>44.0043</t>
+  </si>
+  <si>
+    <t>16.5084</t>
+  </si>
+  <si>
+    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-rupe/</t>
   </si>
   <si>
     <t>PU Dinaridi, Split</t>
   </si>
   <si>
-    <t>Darko Gavrić 00385917289963</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Zlatko Prgin</t>
-  </si>
-  <si>
-    <t>44.0688</t>
-  </si>
-  <si>
-    <t>1.63736</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-zlatko-prgin/</t>
-  </si>
-  <si>
-    <t>HPK Sv. MIhovil</t>
-  </si>
-  <si>
-    <t>Mate Protega 00385981677859, Momir Karabuva 00385917932174</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Dinara</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-dinara/</t>
-  </si>
-  <si>
-    <t>HPD Sinjal 1831, Kijevo</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Dinaridi</t>
-  </si>
-  <si>
-    <t>44.03062365</t>
-  </si>
-  <si>
-    <t>16.3942194</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-dinaridi/</t>
-  </si>
-  <si>
-    <t>PU Dinaridi Split</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Darko Gavrić 00385917289963 </t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Drago Grubač</t>
-  </si>
-  <si>
-    <t>44.04361209</t>
-  </si>
-  <si>
-    <t>16.38702035</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-drago-grubac/</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Martinova košara</t>
-  </si>
-  <si>
-    <t>44.0393472</t>
-  </si>
-  <si>
-    <t>16.40590847</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-martinova-kosara/</t>
-  </si>
-  <si>
-    <t>Zvonimir Šimunović  0038598214442, Lidija Slavić 0038522681209</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Planinarska kuća Glavaš</t>
-  </si>
-  <si>
-    <t>44.01132471</t>
-  </si>
-  <si>
-    <t>16.41945899</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarska-kuca-glavas/</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Rupe</t>
-  </si>
-  <si>
-    <t>44.0043</t>
-  </si>
-  <si>
-    <t>16.5084</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-rupe/</t>
-  </si>
-  <si>
     <t>127</t>
   </si>
   <si>
@@ -2710,21 +2662,6 @@
   </si>
   <si>
     <t>HGSS Stanica Split i PU Dinaridi Split</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>Planinarsko sklonište Vjetar s Dinare</t>
-  </si>
-  <si>
-    <t>https://www.hps.hr/info/planinarske-kuce/planinarsko-skloniste-vjetar-s-dinare/</t>
-  </si>
-  <si>
-    <t>PD Sv. Jakov, Gornji Bitelić</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dražan Buljan 00385959100777 </t>
   </si>
   <si>
     <t>132</t>
@@ -3313,7 +3250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -3369,11 +3306,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3447,7 +3379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3524,9 +3456,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8088,13 +8017,17 @@
       </c>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
+      <c r="E87" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>610</v>
+      </c>
       <c r="G87" s="22">
-        <v>1080.0</v>
+        <v>425.0</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I87" s="20" t="s">
         <v>20</v>
@@ -8103,11 +8036,11 @@
         <v>21</v>
       </c>
       <c r="K87" s="23" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="L87" s="23"/>
       <c r="M87" s="23" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N87" s="20" t="s">
         <v>21</v>
@@ -8127,24 +8060,24 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
       <c r="E88" s="21" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F88" s="21" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G88" s="22">
-        <v>425.0</v>
+        <v>328.0</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I88" s="20" t="s">
         <v>20</v>
@@ -8153,11 +8086,11 @@
         <v>21</v>
       </c>
       <c r="K88" s="23" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L88" s="23"/>
       <c r="M88" s="23" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="N88" s="20" t="s">
         <v>21</v>
@@ -8177,24 +8110,24 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="21" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F89" s="21" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G89" s="22">
-        <v>328.0</v>
+        <v>1594.0</v>
       </c>
       <c r="H89" s="23" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I89" s="20" t="s">
         <v>20</v>
@@ -8203,11 +8136,13 @@
         <v>21</v>
       </c>
       <c r="K89" s="23" t="s">
-        <v>624</v>
-      </c>
-      <c r="L89" s="23"/>
+        <v>626</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>627</v>
+      </c>
       <c r="M89" s="23" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N89" s="20" t="s">
         <v>21</v>
@@ -8225,26 +8160,26 @@
       <c r="W89" s="25"/>
       <c r="X89" s="25"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
       <c r="E90" s="21" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="F90" s="21" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G90" s="22">
-        <v>1594.0</v>
+        <v>1580.0</v>
       </c>
       <c r="H90" s="23" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="I90" s="20" t="s">
         <v>20</v>
@@ -8253,13 +8188,11 @@
         <v>21</v>
       </c>
       <c r="K90" s="23" t="s">
-        <v>631</v>
-      </c>
-      <c r="L90" s="23" t="s">
-        <v>632</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="L90" s="23"/>
       <c r="M90" s="23" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N90" s="20" t="s">
         <v>21</v>
@@ -8277,26 +8210,26 @@
       <c r="W90" s="25"/>
       <c r="X90" s="25"/>
     </row>
-    <row r="91" ht="16.5" customHeight="1">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
       <c r="E91" s="21" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F91" s="21" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G91" s="22">
-        <v>1580.0</v>
+        <v>1340.0</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="I91" s="20" t="s">
         <v>20</v>
@@ -8305,11 +8238,11 @@
         <v>21</v>
       </c>
       <c r="K91" s="23" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L91" s="23"/>
       <c r="M91" s="23" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N91" s="20" t="s">
         <v>21</v>
@@ -8327,26 +8260,26 @@
       <c r="W91" s="25"/>
       <c r="X91" s="25"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" ht="17.25" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="21" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F92" s="21" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G92" s="22">
-        <v>1340.0</v>
+        <v>26.0</v>
       </c>
       <c r="H92" s="23" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="I92" s="20" t="s">
         <v>20</v>
@@ -8355,11 +8288,13 @@
         <v>21</v>
       </c>
       <c r="K92" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="L92" s="23"/>
+        <v>648</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>649</v>
+      </c>
       <c r="M92" s="23" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="N92" s="20" t="s">
         <v>21</v>
@@ -8377,26 +8312,26 @@
       <c r="W92" s="25"/>
       <c r="X92" s="25"/>
     </row>
-    <row r="93" ht="17.25" customHeight="1">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
       <c r="E93" s="21" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F93" s="21" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G93" s="22">
-        <v>26.0</v>
+        <v>1276.0</v>
       </c>
       <c r="H93" s="23" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="I93" s="20" t="s">
         <v>20</v>
@@ -8405,13 +8340,11 @@
         <v>21</v>
       </c>
       <c r="K93" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="L93" s="23" t="s">
-        <v>654</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="L93" s="23"/>
       <c r="M93" s="23" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N93" s="20" t="s">
         <v>21</v>
@@ -8431,24 +8364,24 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
       <c r="E94" s="21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F94" s="21" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G94" s="22">
-        <v>1276.0</v>
+        <v>1180.0</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I94" s="20" t="s">
         <v>20</v>
@@ -8457,11 +8390,11 @@
         <v>21</v>
       </c>
       <c r="K94" s="23" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="L94" s="23"/>
       <c r="M94" s="23" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N94" s="20" t="s">
         <v>21</v>
@@ -8481,24 +8414,24 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
       <c r="E95" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F95" s="21" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G95" s="22">
-        <v>1180.0</v>
+        <v>1112.0</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I95" s="20" t="s">
         <v>20</v>
@@ -8507,11 +8440,11 @@
         <v>21</v>
       </c>
       <c r="K95" s="23" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="L95" s="23"/>
       <c r="M95" s="23" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N95" s="20" t="s">
         <v>21</v>
@@ -8531,24 +8464,24 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
       <c r="E96" s="21" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="F96" s="21" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G96" s="22">
-        <v>1112.0</v>
+        <v>1400.0</v>
       </c>
       <c r="H96" s="23" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I96" s="20" t="s">
         <v>20</v>
@@ -8557,11 +8490,13 @@
         <v>21</v>
       </c>
       <c r="K96" s="23" t="s">
-        <v>673</v>
-      </c>
-      <c r="L96" s="23"/>
+        <v>99</v>
+      </c>
+      <c r="L96" s="23" t="s">
+        <v>675</v>
+      </c>
       <c r="M96" s="23" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="N96" s="20" t="s">
         <v>21</v>
@@ -8581,24 +8516,24 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
       <c r="E97" s="21" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="21" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="G97" s="22">
-        <v>1400.0</v>
+        <v>958.0</v>
       </c>
       <c r="H97" s="23" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="I97" s="20" t="s">
         <v>20</v>
@@ -8607,13 +8542,11 @@
         <v>21</v>
       </c>
       <c r="K97" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="L97" s="23" t="s">
-        <v>680</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="L97" s="23"/>
       <c r="M97" s="23" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N97" s="20" t="s">
         <v>21</v>
@@ -8633,24 +8566,24 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
       <c r="E98" s="21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F98" s="21" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G98" s="22">
-        <v>958.0</v>
+        <v>1180.0</v>
       </c>
       <c r="H98" s="23" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I98" s="20" t="s">
         <v>20</v>
@@ -8659,11 +8592,11 @@
         <v>21</v>
       </c>
       <c r="K98" s="23" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="L98" s="23"/>
       <c r="M98" s="23" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="N98" s="20" t="s">
         <v>21</v>
@@ -8683,24 +8616,24 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
       <c r="E99" s="21" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F99" s="21" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G99" s="22">
-        <v>1180.0</v>
+        <v>723.0</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="I99" s="20" t="s">
         <v>20</v>
@@ -8709,11 +8642,11 @@
         <v>21</v>
       </c>
       <c r="K99" s="23" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="L99" s="23"/>
       <c r="M99" s="23" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="N99" s="20" t="s">
         <v>21</v>
@@ -8733,20 +8666,24 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
+      <c r="E100" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>701</v>
+      </c>
       <c r="G100" s="22">
-        <v>862.0</v>
+        <v>1124.0</v>
       </c>
       <c r="H100" s="23" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="I100" s="20" t="s">
         <v>20</v>
@@ -8755,11 +8692,11 @@
         <v>21</v>
       </c>
       <c r="K100" s="23" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="L100" s="23"/>
       <c r="M100" s="23" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="N100" s="20" t="s">
         <v>21</v>
@@ -8779,24 +8716,24 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
       <c r="E101" s="21" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F101" s="21" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="G101" s="22">
-        <v>723.0</v>
+        <v>935.0</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="I101" s="20" t="s">
         <v>20</v>
@@ -8805,11 +8742,11 @@
         <v>21</v>
       </c>
       <c r="K101" s="23" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="L101" s="23"/>
       <c r="M101" s="23" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="N101" s="20" t="s">
         <v>21</v>
@@ -8829,24 +8766,24 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
       <c r="E102" s="21" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F102" s="21" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="G102" s="22">
-        <v>1124.0</v>
+        <v>1010.0</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I102" s="20" t="s">
         <v>20</v>
@@ -8855,11 +8792,11 @@
         <v>21</v>
       </c>
       <c r="K102" s="23" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="L102" s="23"/>
       <c r="M102" s="23" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="N102" s="20" t="s">
         <v>21</v>
@@ -8877,26 +8814,26 @@
       <c r="W102" s="25"/>
       <c r="X102" s="25"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
       <c r="E103" s="21" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F103" s="21" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="G103" s="22">
-        <v>935.0</v>
+        <v>1210.0</v>
       </c>
       <c r="H103" s="23" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="I103" s="20" t="s">
         <v>20</v>
@@ -8905,11 +8842,11 @@
         <v>21</v>
       </c>
       <c r="K103" s="23" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="L103" s="23"/>
       <c r="M103" s="23" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="N103" s="20" t="s">
         <v>21</v>
@@ -8929,24 +8866,24 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
       <c r="E104" s="21" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F104" s="21" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="G104" s="22">
-        <v>1010.0</v>
+        <v>860.0</v>
       </c>
       <c r="H104" s="23" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="I104" s="20" t="s">
         <v>20</v>
@@ -8955,11 +8892,11 @@
         <v>21</v>
       </c>
       <c r="K104" s="23" t="s">
-        <v>727</v>
+        <v>605</v>
       </c>
       <c r="L104" s="23"/>
       <c r="M104" s="23" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="N104" s="20" t="s">
         <v>21</v>
@@ -8977,26 +8914,26 @@
       <c r="W104" s="25"/>
       <c r="X104" s="25"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
       <c r="E105" s="21" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F105" s="21" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="G105" s="22">
-        <v>1210.0</v>
+        <v>1415.0</v>
       </c>
       <c r="H105" s="23" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="I105" s="20" t="s">
         <v>20</v>
@@ -9005,11 +8942,11 @@
         <v>21</v>
       </c>
       <c r="K105" s="23" t="s">
-        <v>734</v>
+        <v>689</v>
       </c>
       <c r="L105" s="23"/>
       <c r="M105" s="23" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="N105" s="20" t="s">
         <v>21</v>
@@ -9029,24 +8966,24 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
       <c r="E106" s="21" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F106" s="21" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G106" s="22">
-        <v>860.0</v>
+        <v>780.0</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I106" s="20" t="s">
         <v>20</v>
@@ -9059,7 +8996,7 @@
       </c>
       <c r="L106" s="23"/>
       <c r="M106" s="23" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="N106" s="20" t="s">
         <v>21</v>
@@ -9079,24 +9016,24 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
       <c r="E107" s="21" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F107" s="21" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="G107" s="22">
-        <v>1415.0</v>
+        <v>1400.0</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="I107" s="20" t="s">
         <v>20</v>
@@ -9105,11 +9042,11 @@
         <v>21</v>
       </c>
       <c r="K107" s="23" t="s">
-        <v>694</v>
+        <v>605</v>
       </c>
       <c r="L107" s="23"/>
       <c r="M107" s="23" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="N107" s="20" t="s">
         <v>21</v>
@@ -9129,24 +9066,24 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
       <c r="E108" s="21" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F108" s="21" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="G108" s="22">
-        <v>780.0</v>
+        <v>480.0</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="I108" s="20" t="s">
         <v>20</v>
@@ -9159,7 +9096,7 @@
       </c>
       <c r="L108" s="23"/>
       <c r="M108" s="23" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="N108" s="20" t="s">
         <v>21</v>
@@ -9179,24 +9116,24 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
       <c r="E109" s="21" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F109" s="21" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="G109" s="22">
-        <v>1400.0</v>
+        <v>1250.0</v>
       </c>
       <c r="H109" s="23" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="I109" s="20" t="s">
         <v>20</v>
@@ -9205,11 +9142,11 @@
         <v>21</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>605</v>
+        <v>761</v>
       </c>
       <c r="L109" s="23"/>
       <c r="M109" s="23" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="N109" s="20" t="s">
         <v>21</v>
@@ -9229,24 +9166,24 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
       <c r="E110" s="21" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="F110" s="21" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="G110" s="22">
-        <v>480.0</v>
+        <v>1280.0</v>
       </c>
       <c r="H110" s="23" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="I110" s="20" t="s">
         <v>20</v>
@@ -9259,7 +9196,7 @@
       </c>
       <c r="L110" s="23"/>
       <c r="M110" s="23" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="N110" s="20" t="s">
         <v>21</v>
@@ -9279,24 +9216,24 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
       <c r="E111" s="21" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="G111" s="22">
-        <v>1250.0</v>
+        <v>1262.0</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="I111" s="20" t="s">
         <v>20</v>
@@ -9305,11 +9242,11 @@
         <v>21</v>
       </c>
       <c r="K111" s="23" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="L111" s="23"/>
       <c r="M111" s="23" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="N111" s="20" t="s">
         <v>21</v>
@@ -9327,26 +9264,26 @@
       <c r="W111" s="25"/>
       <c r="X111" s="25"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" ht="18.0" customHeight="1">
       <c r="A112" s="11" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
       <c r="E112" s="21" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G112" s="22">
-        <v>1280.0</v>
+        <v>900.0</v>
       </c>
       <c r="H112" s="23" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="I112" s="20" t="s">
         <v>20</v>
@@ -9355,11 +9292,11 @@
         <v>21</v>
       </c>
       <c r="K112" s="23" t="s">
-        <v>605</v>
+        <v>781</v>
       </c>
       <c r="L112" s="23"/>
       <c r="M112" s="23" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="N112" s="20" t="s">
         <v>21</v>
@@ -9379,24 +9316,24 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
       <c r="E113" s="21" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="F113" s="21" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="G113" s="22">
-        <v>1262.0</v>
+        <v>274.0</v>
       </c>
       <c r="H113" s="23" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="I113" s="20" t="s">
         <v>20</v>
@@ -9405,11 +9342,11 @@
         <v>21</v>
       </c>
       <c r="K113" s="23" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="L113" s="23"/>
       <c r="M113" s="23" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="N113" s="20" t="s">
         <v>21</v>
@@ -9427,26 +9364,26 @@
       <c r="W113" s="25"/>
       <c r="X113" s="25"/>
     </row>
-    <row r="114" ht="18.0" customHeight="1">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
       <c r="E114" s="21" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F114" s="21" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G114" s="22">
-        <v>900.0</v>
+        <v>574.0</v>
       </c>
       <c r="H114" s="23" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>20</v>
@@ -9455,11 +9392,11 @@
         <v>21</v>
       </c>
       <c r="K114" s="23" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="L114" s="23"/>
       <c r="M114" s="23" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="N114" s="20" t="s">
         <v>21</v>
@@ -9479,24 +9416,24 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
       <c r="E115" s="21" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F115" s="21" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G115" s="22">
-        <v>274.0</v>
+        <v>267.0</v>
       </c>
       <c r="H115" s="23" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="I115" s="20" t="s">
         <v>20</v>
@@ -9505,11 +9442,11 @@
         <v>21</v>
       </c>
       <c r="K115" s="23" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="L115" s="23"/>
       <c r="M115" s="23" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="N115" s="20" t="s">
         <v>21</v>
@@ -9529,24 +9466,24 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
       <c r="E116" s="21" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F116" s="21" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="G116" s="22">
-        <v>574.0</v>
+        <v>850.0</v>
       </c>
       <c r="H116" s="23" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="I116" s="20" t="s">
         <v>20</v>
@@ -9555,11 +9492,11 @@
         <v>21</v>
       </c>
       <c r="K116" s="23" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="L116" s="23"/>
       <c r="M116" s="23" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="N116" s="20" t="s">
         <v>21</v>
@@ -9579,24 +9516,24 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
       <c r="E117" s="21" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F117" s="21" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="G117" s="22">
-        <v>267.0</v>
+        <v>1050.0</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="I117" s="20" t="s">
         <v>20</v>
@@ -9605,11 +9542,11 @@
         <v>21</v>
       </c>
       <c r="K117" s="23" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="L117" s="23"/>
       <c r="M117" s="23" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="N117" s="20" t="s">
         <v>21</v>
@@ -9629,24 +9566,24 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
       <c r="E118" s="21" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F118" s="21" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="G118" s="22">
-        <v>850.0</v>
+        <v>1543.0</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="I118" s="20" t="s">
         <v>20</v>
@@ -9655,11 +9592,11 @@
         <v>21</v>
       </c>
       <c r="K118" s="23" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="L118" s="23"/>
       <c r="M118" s="23" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="N118" s="20" t="s">
         <v>21</v>
@@ -9679,24 +9616,24 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
       <c r="E119" s="21" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F119" s="21" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="G119" s="22">
-        <v>1050.0</v>
+        <v>1260.0</v>
       </c>
       <c r="H119" s="23" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="I119" s="20" t="s">
         <v>20</v>
@@ -9705,11 +9642,11 @@
         <v>21</v>
       </c>
       <c r="K119" s="23" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="L119" s="23"/>
       <c r="M119" s="23" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="N119" s="20" t="s">
         <v>21</v>
@@ -9729,33 +9666,37 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
+      <c r="E120" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>835</v>
+      </c>
       <c r="G120" s="22">
-        <v>800.0</v>
+        <v>1645.0</v>
       </c>
       <c r="H120" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" s="23" t="s">
         <v>830</v>
-      </c>
-      <c r="I120" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J120" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K120" s="23" t="s">
-        <v>831</v>
       </c>
       <c r="L120" s="23"/>
       <c r="M120" s="23" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="N120" s="20" t="s">
         <v>21</v>
@@ -9773,26 +9714,26 @@
       <c r="W120" s="25"/>
       <c r="X120" s="25"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" ht="17.25" customHeight="1">
       <c r="A121" s="11" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
       <c r="E121" s="21" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F121" s="21" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="G121" s="22">
-        <v>1543.0</v>
+        <v>1287.0</v>
       </c>
       <c r="H121" s="23" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="I121" s="20" t="s">
         <v>20</v>
@@ -9801,11 +9742,11 @@
         <v>21</v>
       </c>
       <c r="K121" s="23" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="L121" s="23"/>
       <c r="M121" s="23" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="N121" s="20" t="s">
         <v>21</v>
@@ -9825,20 +9766,24 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="11" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="26"/>
+      <c r="E122" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>848</v>
+      </c>
       <c r="G122" s="22">
-        <v>1831.0</v>
+        <v>550.0</v>
       </c>
       <c r="H122" s="23" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="I122" s="20" t="s">
         <v>20</v>
@@ -9851,7 +9796,7 @@
       </c>
       <c r="L122" s="23"/>
       <c r="M122" s="23" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="N122" s="20" t="s">
         <v>21</v>
@@ -9871,24 +9816,24 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="11" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
       <c r="E123" s="21" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="F123" s="21" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="G123" s="22">
-        <v>1260.0</v>
+        <v>1364.0</v>
       </c>
       <c r="H123" s="23" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="I123" s="20" t="s">
         <v>20</v>
@@ -9897,11 +9842,11 @@
         <v>21</v>
       </c>
       <c r="K123" s="23" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="L123" s="23"/>
       <c r="M123" s="23" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="N123" s="20" t="s">
         <v>21</v>
@@ -9919,26 +9864,26 @@
       <c r="W123" s="25"/>
       <c r="X123" s="25"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" ht="15.0" customHeight="1">
       <c r="A124" s="11" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="C124" s="25"/>
       <c r="D124" s="25"/>
       <c r="E124" s="21" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="G124" s="22">
-        <v>1645.0</v>
+        <v>1530.0</v>
       </c>
       <c r="H124" s="23" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="I124" s="20" t="s">
         <v>20</v>
@@ -9947,11 +9892,11 @@
         <v>21</v>
       </c>
       <c r="K124" s="23" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="L124" s="23"/>
       <c r="M124" s="23" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
       <c r="N124" s="20" t="s">
         <v>21</v>
@@ -9969,26 +9914,26 @@
       <c r="W124" s="25"/>
       <c r="X124" s="25"/>
     </row>
-    <row r="125" ht="17.25" customHeight="1">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>857</v>
+        <v>864</v>
       </c>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
       <c r="E125" s="21" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="F125" s="21" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="G125" s="22">
-        <v>1287.0</v>
+        <v>1119.0</v>
       </c>
       <c r="H125" s="23" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="I125" s="20" t="s">
         <v>20</v>
@@ -9997,11 +9942,11 @@
         <v>21</v>
       </c>
       <c r="K125" s="23" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="L125" s="23"/>
       <c r="M125" s="23" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="N125" s="20" t="s">
         <v>21</v>
@@ -10021,24 +9966,24 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
       <c r="E126" s="21" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="F126" s="21" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="G126" s="22">
-        <v>550.0</v>
+        <v>1065.0</v>
       </c>
       <c r="H126" s="23" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="I126" s="20" t="s">
         <v>20</v>
@@ -10047,11 +9992,11 @@
         <v>21</v>
       </c>
       <c r="K126" s="23" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
       <c r="L126" s="23"/>
       <c r="M126" s="23" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="N126" s="20" t="s">
         <v>21</v>
@@ -10071,24 +10016,24 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
       <c r="E127" s="21" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="F127" s="21" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="G127" s="22">
-        <v>1364.0</v>
+        <v>1630.0</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="I127" s="20" t="s">
         <v>20</v>
@@ -10097,11 +10042,11 @@
         <v>21</v>
       </c>
       <c r="K127" s="23" t="s">
-        <v>831</v>
+        <v>881</v>
       </c>
       <c r="L127" s="23"/>
       <c r="M127" s="23" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="N127" s="20" t="s">
         <v>21</v>
@@ -10119,26 +10064,26 @@
       <c r="W127" s="25"/>
       <c r="X127" s="25"/>
     </row>
-    <row r="128" ht="15.0" customHeight="1">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
       <c r="E128" s="21" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="F128" s="21" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="G128" s="22">
-        <v>1530.0</v>
+        <v>1001.0</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="I128" s="20" t="s">
         <v>20</v>
@@ -10147,11 +10092,11 @@
         <v>21</v>
       </c>
       <c r="K128" s="23" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="L128" s="23"/>
       <c r="M128" s="23" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="N128" s="20" t="s">
         <v>21</v>
@@ -10171,24 +10116,24 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
       <c r="E129" s="21" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="F129" s="21" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="G129" s="22">
-        <v>1119.0</v>
+        <v>1340.0</v>
       </c>
       <c r="H129" s="23" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="I129" s="20" t="s">
         <v>20</v>
@@ -10197,11 +10142,11 @@
         <v>21</v>
       </c>
       <c r="K129" s="23" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="L129" s="23"/>
       <c r="M129" s="23" t="s">
-        <v>884</v>
+        <v>895</v>
       </c>
       <c r="N129" s="20" t="s">
         <v>21</v>
@@ -10221,24 +10166,24 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11" t="s">
-        <v>885</v>
+        <v>896</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>886</v>
+        <v>897</v>
       </c>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
       <c r="E130" s="21" t="s">
-        <v>887</v>
+        <v>898</v>
       </c>
       <c r="F130" s="21" t="s">
-        <v>888</v>
+        <v>899</v>
       </c>
       <c r="G130" s="22">
-        <v>1065.0</v>
+        <v>220.0</v>
       </c>
       <c r="H130" s="23" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="I130" s="20" t="s">
         <v>20</v>
@@ -10247,11 +10192,11 @@
         <v>21</v>
       </c>
       <c r="K130" s="23" t="s">
-        <v>890</v>
+        <v>901</v>
       </c>
       <c r="L130" s="23"/>
       <c r="M130" s="23" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="N130" s="20" t="s">
         <v>21</v>
@@ -10271,24 +10216,24 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="11" t="s">
-        <v>892</v>
+        <v>903</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>893</v>
+        <v>904</v>
       </c>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
       <c r="E131" s="21" t="s">
-        <v>894</v>
+        <v>905</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="G131" s="22">
-        <v>1630.0</v>
+        <v>150.0</v>
       </c>
       <c r="H131" s="23" t="s">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="I131" s="20" t="s">
         <v>20</v>
@@ -10297,11 +10242,11 @@
         <v>21</v>
       </c>
       <c r="K131" s="23" t="s">
-        <v>897</v>
+        <v>908</v>
       </c>
       <c r="L131" s="23"/>
       <c r="M131" s="23" t="s">
-        <v>832</v>
+        <v>909</v>
       </c>
       <c r="N131" s="20" t="s">
         <v>21</v>
@@ -10319,22 +10264,26 @@
       <c r="W131" s="25"/>
       <c r="X131" s="25"/>
     </row>
-    <row r="132" ht="15.0" customHeight="1">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="11" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
+      <c r="E132" s="21" t="s">
+        <v>912</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>913</v>
+      </c>
       <c r="G132" s="22">
-        <v>1330.0</v>
+        <v>477.0</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="I132" s="20" t="s">
         <v>20</v>
@@ -10343,11 +10292,11 @@
         <v>21</v>
       </c>
       <c r="K132" s="23" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="L132" s="23"/>
       <c r="M132" s="23" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="N132" s="20" t="s">
         <v>21</v>
@@ -10367,24 +10316,24 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
       <c r="E133" s="21" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="F133" s="21" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="G133" s="22">
-        <v>1001.0</v>
+        <v>499.0</v>
       </c>
       <c r="H133" s="23" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="I133" s="20" t="s">
         <v>20</v>
@@ -10393,11 +10342,11 @@
         <v>21</v>
       </c>
       <c r="K133" s="23" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="L133" s="23"/>
       <c r="M133" s="23" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="N133" s="20" t="s">
         <v>21</v>
@@ -10417,24 +10366,24 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
       <c r="E134" s="21" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
       <c r="F134" s="21" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="G134" s="22">
-        <v>1340.0</v>
+        <v>325.0</v>
       </c>
       <c r="H134" s="23" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="I134" s="20" t="s">
         <v>20</v>
@@ -10443,11 +10392,11 @@
         <v>21</v>
       </c>
       <c r="K134" s="23" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="L134" s="23"/>
       <c r="M134" s="23" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
       <c r="N134" s="20" t="s">
         <v>21</v>
@@ -10465,26 +10414,26 @@
       <c r="W134" s="25"/>
       <c r="X134" s="25"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" ht="17.25" customHeight="1">
       <c r="A135" s="11" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="C135" s="25"/>
       <c r="D135" s="25"/>
       <c r="E135" s="21" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="F135" s="21" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="G135" s="22">
-        <v>220.0</v>
+        <v>598.0</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="I135" s="20" t="s">
         <v>20</v>
@@ -10493,11 +10442,11 @@
         <v>21</v>
       </c>
       <c r="K135" s="23" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="L135" s="23"/>
       <c r="M135" s="23" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="N135" s="20" t="s">
         <v>21</v>
@@ -10517,24 +10466,24 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
       <c r="E136" s="21" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="F136" s="21" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="G136" s="22">
-        <v>150.0</v>
+        <v>460.0</v>
       </c>
       <c r="H136" s="23" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="I136" s="20" t="s">
         <v>20</v>
@@ -10543,11 +10492,11 @@
         <v>21</v>
       </c>
       <c r="K136" s="23" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="L136" s="23"/>
       <c r="M136" s="23" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="N136" s="20" t="s">
         <v>21</v>
@@ -10567,24 +10516,24 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
       <c r="E137" s="21" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="F137" s="21" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="G137" s="22">
-        <v>477.0</v>
+        <v>872.0</v>
       </c>
       <c r="H137" s="23" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="I137" s="20" t="s">
         <v>20</v>
@@ -10593,11 +10542,11 @@
         <v>21</v>
       </c>
       <c r="K137" s="23" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="L137" s="23"/>
       <c r="M137" s="23" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="N137" s="20" t="s">
         <v>21</v>
@@ -10617,24 +10566,24 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
       <c r="E138" s="21" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
       <c r="F138" s="21" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="G138" s="22">
-        <v>499.0</v>
+        <v>1325.0</v>
       </c>
       <c r="H138" s="23" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="I138" s="20" t="s">
         <v>20</v>
@@ -10643,11 +10592,11 @@
         <v>21</v>
       </c>
       <c r="K138" s="23" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
       <c r="L138" s="23"/>
       <c r="M138" s="23" t="s">
-        <v>944</v>
+        <v>955</v>
       </c>
       <c r="N138" s="20" t="s">
         <v>21</v>
@@ -10667,37 +10616,37 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11" t="s">
-        <v>945</v>
+        <v>956</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
       <c r="E139" s="21" t="s">
-        <v>947</v>
+        <v>958</v>
       </c>
       <c r="F139" s="21" t="s">
+        <v>959</v>
+      </c>
+      <c r="G139" s="22">
+        <v>1150.0</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="I139" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K139" s="23" t="s">
         <v>948</v>
-      </c>
-      <c r="G139" s="22">
-        <v>325.0</v>
-      </c>
-      <c r="H139" s="23" t="s">
-        <v>949</v>
-      </c>
-      <c r="I139" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J139" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K139" s="23" t="s">
-        <v>950</v>
       </c>
       <c r="L139" s="23"/>
       <c r="M139" s="23" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="N139" s="20" t="s">
         <v>21</v>
@@ -10715,26 +10664,26 @@
       <c r="W139" s="25"/>
       <c r="X139" s="25"/>
     </row>
-    <row r="140" ht="17.25" customHeight="1">
+    <row r="140" ht="15.0" customHeight="1">
       <c r="A140" s="11" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
       <c r="E140" s="21" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="F140" s="21" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="G140" s="22">
-        <v>598.0</v>
+        <v>868.0</v>
       </c>
       <c r="H140" s="23" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="I140" s="20" t="s">
         <v>20</v>
@@ -10743,11 +10692,11 @@
         <v>21</v>
       </c>
       <c r="K140" s="23" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="L140" s="23"/>
       <c r="M140" s="23" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="N140" s="20" t="s">
         <v>21</v>
@@ -10767,24 +10716,24 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11" t="s">
-        <v>957</v>
+        <v>968</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>958</v>
+        <v>969</v>
       </c>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
       <c r="E141" s="21" t="s">
-        <v>959</v>
+        <v>970</v>
       </c>
       <c r="F141" s="21" t="s">
-        <v>960</v>
+        <v>971</v>
       </c>
       <c r="G141" s="22">
-        <v>460.0</v>
+        <v>1055.0</v>
       </c>
       <c r="H141" s="23" t="s">
-        <v>961</v>
+        <v>972</v>
       </c>
       <c r="I141" s="20" t="s">
         <v>20</v>
@@ -10793,11 +10742,11 @@
         <v>21</v>
       </c>
       <c r="K141" s="23" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="L141" s="23"/>
       <c r="M141" s="23" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="N141" s="20" t="s">
         <v>21</v>
@@ -10817,24 +10766,24 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
       <c r="E142" s="21" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="F142" s="21" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="G142" s="22">
-        <v>872.0</v>
+        <v>970.0</v>
       </c>
       <c r="H142" s="23" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="I142" s="20" t="s">
         <v>20</v>
@@ -10843,11 +10792,11 @@
         <v>21</v>
       </c>
       <c r="K142" s="23" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="L142" s="23"/>
       <c r="M142" s="23" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="N142" s="20" t="s">
         <v>21</v>
@@ -10867,24 +10816,24 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
       <c r="E143" s="21" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="F143" s="21" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="G143" s="22">
-        <v>1325.0</v>
+        <v>1030.0</v>
       </c>
       <c r="H143" s="23" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="I143" s="20" t="s">
         <v>20</v>
@@ -10893,11 +10842,11 @@
         <v>21</v>
       </c>
       <c r="K143" s="23" t="s">
-        <v>943</v>
+        <v>986</v>
       </c>
       <c r="L143" s="23"/>
       <c r="M143" s="23" t="s">
-        <v>976</v>
+        <v>987</v>
       </c>
       <c r="N143" s="20" t="s">
         <v>21</v>
@@ -10917,24 +10866,24 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11" t="s">
-        <v>977</v>
+        <v>988</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="C144" s="25"/>
       <c r="D144" s="25"/>
       <c r="E144" s="21" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="F144" s="21" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
       <c r="G144" s="22">
-        <v>1150.0</v>
+        <v>1480.0</v>
       </c>
       <c r="H144" s="23" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="I144" s="20" t="s">
         <v>20</v>
@@ -10943,11 +10892,11 @@
         <v>21</v>
       </c>
       <c r="K144" s="23" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="L144" s="23"/>
       <c r="M144" s="23" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
       <c r="N144" s="20" t="s">
         <v>21</v>
@@ -10965,26 +10914,26 @@
       <c r="W144" s="25"/>
       <c r="X144" s="25"/>
     </row>
-    <row r="145" ht="15.0" customHeight="1">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
       <c r="C145" s="25"/>
       <c r="D145" s="25"/>
       <c r="E145" s="21" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="F145" s="21" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="G145" s="22">
-        <v>868.0</v>
+        <v>292.0</v>
       </c>
       <c r="H145" s="23" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
       <c r="I145" s="20" t="s">
         <v>20</v>
@@ -10993,11 +10942,11 @@
         <v>21</v>
       </c>
       <c r="K145" s="23" t="s">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="L145" s="23"/>
       <c r="M145" s="23" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="N145" s="20" t="s">
         <v>21</v>
@@ -11017,24 +10966,24 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
       <c r="E146" s="21" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="G146" s="22">
-        <v>1055.0</v>
+        <v>1467.0</v>
       </c>
       <c r="H146" s="23" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="I146" s="20" t="s">
         <v>20</v>
@@ -11043,11 +10992,11 @@
         <v>21</v>
       </c>
       <c r="K146" s="23" t="s">
-        <v>969</v>
+        <v>1006</v>
       </c>
       <c r="L146" s="23"/>
       <c r="M146" s="23" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="N146" s="20" t="s">
         <v>21</v>
@@ -11067,24 +11016,24 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
       <c r="E147" s="21" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
       <c r="F147" s="21" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="G147" s="22">
-        <v>970.0</v>
+        <v>1422.0</v>
       </c>
       <c r="H147" s="23" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="I147" s="20" t="s">
         <v>20</v>
@@ -11093,11 +11042,11 @@
         <v>21</v>
       </c>
       <c r="K147" s="23" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="L147" s="23"/>
       <c r="M147" s="23" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="N147" s="20" t="s">
         <v>21</v>
@@ -11117,37 +11066,37 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
       <c r="E148" s="21" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="F148" s="21" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="G148" s="22">
-        <v>1030.0</v>
+        <v>1594.0</v>
       </c>
       <c r="H148" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I148" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K148" s="23" t="s">
         <v>1006</v>
-      </c>
-      <c r="I148" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J148" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K148" s="23" t="s">
-        <v>1007</v>
       </c>
       <c r="L148" s="23"/>
       <c r="M148" s="23" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="N148" s="20" t="s">
         <v>21</v>
@@ -11165,26 +11114,26 @@
       <c r="W148" s="25"/>
       <c r="X148" s="25"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="11" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
       <c r="E149" s="21" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="F149" s="21" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="G149" s="22">
-        <v>1480.0</v>
+        <v>900.0</v>
       </c>
       <c r="H149" s="23" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="I149" s="20" t="s">
         <v>20</v>
@@ -11193,11 +11142,11 @@
         <v>21</v>
       </c>
       <c r="K149" s="23" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="L149" s="23"/>
       <c r="M149" s="23" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="N149" s="20" t="s">
         <v>21</v>
@@ -11215,26 +11164,26 @@
       <c r="W149" s="25"/>
       <c r="X149" s="25"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="11" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
       <c r="E150" s="21" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="F150" s="21" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="G150" s="22">
-        <v>292.0</v>
+        <v>721.0</v>
       </c>
       <c r="H150" s="23" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="I150" s="20" t="s">
         <v>20</v>
@@ -11243,11 +11192,11 @@
         <v>21</v>
       </c>
       <c r="K150" s="23" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
       <c r="L150" s="23"/>
       <c r="M150" s="23" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
       <c r="N150" s="20" t="s">
         <v>21</v>
@@ -11267,24 +11216,24 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="C151" s="25"/>
       <c r="D151" s="25"/>
       <c r="E151" s="21" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
       <c r="F151" s="21" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
       <c r="G151" s="22">
-        <v>1467.0</v>
+        <v>1780.0</v>
       </c>
       <c r="H151" s="23" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
       <c r="I151" s="20" t="s">
         <v>20</v>
@@ -11293,11 +11242,11 @@
         <v>21</v>
       </c>
       <c r="K151" s="23" t="s">
-        <v>1027</v>
+        <v>855</v>
       </c>
       <c r="L151" s="23"/>
       <c r="M151" s="23" t="s">
-        <v>1028</v>
+        <v>837</v>
       </c>
       <c r="N151" s="20" t="s">
         <v>21</v>
@@ -11317,24 +11266,24 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="C152" s="25"/>
       <c r="D152" s="25"/>
       <c r="E152" s="21" t="s">
-        <v>1031</v>
+        <v>1042</v>
       </c>
       <c r="F152" s="21" t="s">
-        <v>1032</v>
+        <v>1043</v>
       </c>
       <c r="G152" s="22">
-        <v>1422.0</v>
+        <v>1450.0</v>
       </c>
       <c r="H152" s="23" t="s">
-        <v>1033</v>
+        <v>1044</v>
       </c>
       <c r="I152" s="20" t="s">
         <v>20</v>
@@ -11343,11 +11292,11 @@
         <v>21</v>
       </c>
       <c r="K152" s="23" t="s">
-        <v>1034</v>
+        <v>855</v>
       </c>
       <c r="L152" s="23"/>
       <c r="M152" s="23" t="s">
-        <v>1035</v>
+        <v>837</v>
       </c>
       <c r="N152" s="20" t="s">
         <v>21</v>
@@ -11367,24 +11316,24 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="C153" s="25"/>
       <c r="D153" s="25"/>
       <c r="E153" s="21" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
       <c r="F153" s="21" t="s">
-        <v>1039</v>
+        <v>1048</v>
       </c>
       <c r="G153" s="22">
-        <v>1594.0</v>
+        <v>1610.0</v>
       </c>
       <c r="H153" s="23" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="I153" s="20" t="s">
         <v>20</v>
@@ -11393,11 +11342,11 @@
         <v>21</v>
       </c>
       <c r="K153" s="23" t="s">
-        <v>1027</v>
+        <v>855</v>
       </c>
       <c r="L153" s="23"/>
       <c r="M153" s="23" t="s">
-        <v>1041</v>
+        <v>837</v>
       </c>
       <c r="N153" s="20" t="s">
         <v>21</v>
@@ -11415,26 +11364,26 @@
       <c r="W153" s="25"/>
       <c r="X153" s="25"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
       <c r="E154" s="21" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="G154" s="22">
-        <v>900.0</v>
+        <v>1009.0</v>
       </c>
       <c r="H154" s="23" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="I154" s="20" t="s">
         <v>20</v>
@@ -11443,11 +11392,11 @@
         <v>21</v>
       </c>
       <c r="K154" s="23" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="L154" s="23"/>
       <c r="M154" s="23" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="N154" s="20" t="s">
         <v>21</v>
@@ -11465,26 +11414,26 @@
       <c r="W154" s="25"/>
       <c r="X154" s="25"/>
     </row>
-    <row r="155" ht="16.5" customHeight="1">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
       <c r="E155" s="21" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="F155" s="21" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="G155" s="22">
-        <v>721.0</v>
+        <v>282.0</v>
       </c>
       <c r="H155" s="23" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="I155" s="20" t="s">
         <v>20</v>
@@ -11493,11 +11442,11 @@
         <v>21</v>
       </c>
       <c r="K155" s="23" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="L155" s="23"/>
       <c r="M155" s="23" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="N155" s="20" t="s">
         <v>21</v>
@@ -11517,24 +11466,24 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
       <c r="E156" s="21" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="F156" s="21" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="G156" s="22">
-        <v>1780.0</v>
+        <v>655.0</v>
       </c>
       <c r="H156" s="23" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="I156" s="20" t="s">
         <v>20</v>
@@ -11543,11 +11492,11 @@
         <v>21</v>
       </c>
       <c r="K156" s="23" t="s">
-        <v>831</v>
+        <v>1067</v>
       </c>
       <c r="L156" s="23"/>
       <c r="M156" s="23" t="s">
-        <v>832</v>
+        <v>1068</v>
       </c>
       <c r="N156" s="20" t="s">
         <v>21</v>
@@ -11567,24 +11516,24 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="C157" s="25"/>
       <c r="D157" s="25"/>
       <c r="E157" s="21" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="F157" s="21" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="G157" s="22">
-        <v>1450.0</v>
+        <v>350.0</v>
       </c>
       <c r="H157" s="23" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="I157" s="20" t="s">
         <v>20</v>
@@ -11593,11 +11542,11 @@
         <v>21</v>
       </c>
       <c r="K157" s="23" t="s">
-        <v>831</v>
+        <v>1074</v>
       </c>
       <c r="L157" s="23"/>
       <c r="M157" s="23" t="s">
-        <v>832</v>
+        <v>1075</v>
       </c>
       <c r="N157" s="20" t="s">
         <v>21</v>
@@ -11614,256 +11563,6 @@
       <c r="V157" s="25"/>
       <c r="W157" s="25"/>
       <c r="X157" s="25"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="11" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="21" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F158" s="21" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G158" s="22">
-        <v>1610.0</v>
-      </c>
-      <c r="H158" s="23" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I158" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J158" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K158" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="L158" s="23"/>
-      <c r="M158" s="23" t="s">
-        <v>832</v>
-      </c>
-      <c r="N158" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O158" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P158" s="25"/>
-      <c r="Q158" s="25"/>
-      <c r="R158" s="25"/>
-      <c r="S158" s="25"/>
-      <c r="T158" s="25"/>
-      <c r="U158" s="25"/>
-      <c r="V158" s="25"/>
-      <c r="W158" s="25"/>
-      <c r="X158" s="25"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="11" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="21" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F159" s="21" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G159" s="22">
-        <v>1009.0</v>
-      </c>
-      <c r="H159" s="23" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I159" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J159" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K159" s="23" t="s">
-        <v>1054</v>
-      </c>
-      <c r="L159" s="23"/>
-      <c r="M159" s="23" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N159" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O159" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P159" s="25"/>
-      <c r="Q159" s="25"/>
-      <c r="R159" s="25"/>
-      <c r="S159" s="25"/>
-      <c r="T159" s="25"/>
-      <c r="U159" s="25"/>
-      <c r="V159" s="25"/>
-      <c r="W159" s="25"/>
-      <c r="X159" s="25"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="11" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B160" s="20" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="21" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F160" s="21" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G160" s="22">
-        <v>282.0</v>
-      </c>
-      <c r="H160" s="23" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I160" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J160" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K160" s="23" t="s">
-        <v>1081</v>
-      </c>
-      <c r="L160" s="23"/>
-      <c r="M160" s="23" t="s">
-        <v>1082</v>
-      </c>
-      <c r="N160" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O160" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P160" s="25"/>
-      <c r="Q160" s="25"/>
-      <c r="R160" s="25"/>
-      <c r="S160" s="25"/>
-      <c r="T160" s="25"/>
-      <c r="U160" s="25"/>
-      <c r="V160" s="25"/>
-      <c r="W160" s="25"/>
-      <c r="X160" s="25"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="21" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F161" s="21" t="s">
-        <v>1086</v>
-      </c>
-      <c r="G161" s="22">
-        <v>655.0</v>
-      </c>
-      <c r="H161" s="23" t="s">
-        <v>1087</v>
-      </c>
-      <c r="I161" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J161" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K161" s="23" t="s">
-        <v>1088</v>
-      </c>
-      <c r="L161" s="23"/>
-      <c r="M161" s="23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N161" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O161" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P161" s="25"/>
-      <c r="Q161" s="25"/>
-      <c r="R161" s="25"/>
-      <c r="S161" s="25"/>
-      <c r="T161" s="25"/>
-      <c r="U161" s="25"/>
-      <c r="V161" s="25"/>
-      <c r="W161" s="25"/>
-      <c r="X161" s="25"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="11" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="21" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F162" s="21" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G162" s="22">
-        <v>350.0</v>
-      </c>
-      <c r="H162" s="23" t="s">
-        <v>1094</v>
-      </c>
-      <c r="I162" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="J162" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="K162" s="23" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L162" s="23"/>
-      <c r="M162" s="23" t="s">
-        <v>1096</v>
-      </c>
-      <c r="N162" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O162" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P162" s="25"/>
-      <c r="Q162" s="25"/>
-      <c r="R162" s="25"/>
-      <c r="S162" s="25"/>
-      <c r="T162" s="25"/>
-      <c r="U162" s="25"/>
-      <c r="V162" s="25"/>
-      <c r="W162" s="25"/>
-      <c r="X162" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
